--- a/inputs/FIELDS_STANDARDIZED_RC_DATA.xlsx
+++ b/inputs/FIELDS_STANDARDIZED_RC_DATA.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\iotc-sf-data-processing\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC59DE-017F-48A5-BE65-B41437420772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6F2261-DB79-46E0-8D58-DA3A529F5B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="669" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="669" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RC FORMAT FIELD_allS" sheetId="21" r:id="rId1"/>
     <sheet name="RC FORMAT FIELDS" sheetId="22" r:id="rId2"/>
-    <sheet name="WIDE FORMAT FIELDS - LEGACY" sheetId="16" r:id="rId3"/>
-    <sheet name="WIDE FORMAT FIELDS - CURRENT" sheetId="20" r:id="rId4"/>
-    <sheet name="MELTED FORMAT FIELDS - CURRENT" sheetId="19" r:id="rId5"/>
+    <sheet name="CA FORMAT FIELDS" sheetId="23" r:id="rId3"/>
+    <sheet name="WIDE FORMAT FIELDS - LEGACY" sheetId="16" r:id="rId4"/>
+    <sheet name="WIDE FORMAT FIELDS - CURRENT" sheetId="20" r:id="rId5"/>
+    <sheet name="MELTED FORMAT FIELDS - CURRENT" sheetId="19" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RC FORMAT FIELD_allS'!$A$1:$B$38</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="172">
   <si>
     <t>First length class (corresponding to class C001)</t>
   </si>
@@ -547,6 +548,15 @@
   </si>
   <si>
     <t>IOTC Species</t>
+  </si>
+  <si>
+    <t>CATCH_SCHOOL_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>RAISING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month data </t>
   </si>
 </sst>
 </file>
@@ -1359,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFD6A1-5D7A-4889-BE45-D350600C5E4F}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1641,6 +1651,470 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0A6619-0937-459D-A0F0-7B6B1165F4DD}">
+  <dimension ref="A1:Y42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y29" t="e">
+        <f>+Z29*A30</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="W33">
+        <f>8+5</f>
+        <v>13</v>
+      </c>
+      <c r="Y33" t="e">
+        <f>+Z33*A34</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M7" r:id="rId1" location="fleets" xr:uid="{15CBC4E3-3086-486A-BAD1-DFEFD8D834BA}"/>
+    <hyperlink ref="M5" r:id="rId2" location="IOTCareasMain" xr:uid="{A76192DF-824C-4BEA-B14E-A1EF810AB6D3}"/>
+    <hyperlink ref="M6" r:id="rId3" location="countries" xr:uid="{46903C8B-00A0-45F8-8342-DBBBF7366191}"/>
+    <hyperlink ref="M8" r:id="rId4" location="fisheryTypes" xr:uid="{1006C816-336F-4563-AE42-B59789A60851}"/>
+    <hyperlink ref="M11" r:id="rId5" location="gears" xr:uid="{401F4EFD-A298-4A7E-B307-20D158350B01}"/>
+    <hyperlink ref="M10" r:id="rId6" location="fisheries" xr:uid="{4F8C70FB-0E2F-4CA5-835B-524A76E57EC3}"/>
+    <hyperlink ref="M14" r:id="rId7" location="speciesGroups" xr:uid="{B027290E-395C-49D0-947A-A4BE333C3B4E}"/>
+    <hyperlink ref="M15" r:id="rId8" location="IOTCspecies" xr:uid="{4C9351C2-A8B1-4975-974A-292ABD7D6FD5}"/>
+    <hyperlink ref="M23" r:id="rId9" location="catchUnits " xr:uid="{E89E7214-7380-4F21-8C01-A8B7096B8DFA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BBB99A-1570-48BB-A2D1-05D8F8956D2A}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -1916,7 +2390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6956E8BC-8F37-4832-BD47-15375277A237}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -2153,7 +2627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AFB39F-014D-4912-99D6-2E656A5A2611}">
   <dimension ref="A1:D22"/>
   <sheetViews>
